--- a/data/trans_orig/IP22D2_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5F5955-55A6-4653-BF81-D14C8DC283BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C25BE98-8BE5-43DD-B989-AAA1F91737E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD766B4-2529-4E72-9D4A-60BF23C2AC34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31C96986-579E-4BE9-8D81-2868D2B103AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>70,2%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>32,61%</t>
+    <t>39,08%</t>
   </si>
   <si>
     <t>NO</t>
@@ -107,13 +107,13 @@
     <t>87,47%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>35,5%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>67,39%</t>
+    <t>60,92%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -122,7 +122,7 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,83%</t>
+    <t>6,8%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -131,13 +131,13 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>92,17%</t>
+    <t>93,2%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -146,7 +146,7 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>95,79%</t>
+    <t>95,56%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -173,37 +173,37 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>94,25%</t>
+    <t>94,07%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>94,28%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>96,22%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F2454-4760-4F99-89E3-91DD07C6753F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB821AF6-C255-440D-B2B8-A13BE538244B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D2_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C25BE98-8BE5-43DD-B989-AAA1F91737E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5971873C-8AA4-4D5B-8386-9B8BEB50674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31C96986-579E-4BE9-8D81-2868D2B103AA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C08CFBB9-23CA-4F74-9098-4F174A736C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,31 +68,37 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>57,75%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -104,103 +110,97 @@
     <t>100%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB821AF6-C255-440D-B2B8-A13BE538244B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E4BBDE-AFBD-4232-A086-442F0B960FA0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -736,10 +736,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -751,16 +751,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -769,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -787,10 +787,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>5129</v>
+        <v>7537</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -802,25 +802,25 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>4145</v>
+        <v>5658</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>9274</v>
+        <v>13195</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -829,7 +829,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -838,49 +838,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
       <c r="I6" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>504</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>519</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -924,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>31</v>
@@ -945,25 +945,25 @@
         <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>33803</v>
+        <v>30211</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>29717</v>
+        <v>35781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>34</v>
@@ -975,7 +975,7 @@
         <v>88</v>
       </c>
       <c r="N8" s="7">
-        <v>63520</v>
+        <v>65992</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
@@ -984,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -993,49 +993,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>45</v>
       </c>
-      <c r="D9" s="7">
-        <v>34307</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
       <c r="I9" s="7">
-        <v>29717</v>
+        <v>36300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
       </c>
       <c r="N9" s="7">
-        <v>64024</v>
+        <v>66511</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>38</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>39</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>40</v>
@@ -1097,49 +1097,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>9418</v>
+        <v>9763</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10754</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9905</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1148,49 +1148,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>14</v>
-      </c>
       <c r="I12" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>45</v>
@@ -1219,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>47</v>
@@ -1234,13 +1234,13 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1098</v>
+        <v>1174</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>49</v>
@@ -1255,7 +1255,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="7">
-        <v>48350</v>
+        <v>47511</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>50</v>
@@ -1264,13 +1264,13 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>43766</v>
+        <v>52194</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>52</v>
@@ -1279,13 +1279,13 @@
         <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
       </c>
       <c r="N14" s="7">
-        <v>92116</v>
+        <v>99705</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>54</v>
@@ -1294,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1306,46 +1306,46 @@
         <v>63</v>
       </c>
       <c r="D15" s="7">
-        <v>48854</v>
+        <v>48166</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>44360</v>
+        <v>52713</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>126</v>
       </c>
       <c r="N15" s="7">
-        <v>93214</v>
+        <v>100879</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
